--- a/05-Test cases (Open Cart ).xlsx
+++ b/05-Test cases (Open Cart ).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Classic Computer\Desktop\report\OpenCart-Manual_Testing project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB5F23-3AA2-40D8-8AD6-6D324CCC6576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE1EB2E-96E3-4232-AA0B-766CCC06A004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1485" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="Logout" sheetId="4" r:id="rId3"/>
     <sheet name="Forgot Password" sheetId="5" r:id="rId4"/>
     <sheet name="Search" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="Product Compare" sheetId="7" r:id="rId6"/>
-    <sheet name="Product Display" sheetId="8" r:id="rId7"/>
-    <sheet name="Add to cart" sheetId="9" r:id="rId8"/>
-    <sheet name="Home Page" sheetId="10" r:id="rId9"/>
-    <sheet name="Checkout" sheetId="11" r:id="rId10"/>
-    <sheet name="My Account" sheetId="12" r:id="rId11"/>
-    <sheet name="Change Password" sheetId="13" r:id="rId12"/>
-    <sheet name="Newsletter" sheetId="14" r:id="rId13"/>
-    <sheet name="Contact Us" sheetId="15" r:id="rId14"/>
-    <sheet name="Currencies" sheetId="16" r:id="rId15"/>
+    <sheet name="Search (2)" sheetId="17" r:id="rId6"/>
+    <sheet name="Product Compare" sheetId="7" r:id="rId7"/>
+    <sheet name="Product Display" sheetId="8" r:id="rId8"/>
+    <sheet name="Add to cart" sheetId="9" r:id="rId9"/>
+    <sheet name="Home Page" sheetId="10" r:id="rId10"/>
+    <sheet name="Checkout" sheetId="11" r:id="rId11"/>
+    <sheet name="My Account" sheetId="12" r:id="rId12"/>
+    <sheet name="Change Password" sheetId="13" r:id="rId13"/>
+    <sheet name="Newsletter" sheetId="14" r:id="rId14"/>
+    <sheet name="Contact Us" sheetId="15" r:id="rId15"/>
+    <sheet name="Currencies" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1100">
   <si>
     <t>Priority</t>
   </si>
@@ -5356,16 +5357,35 @@
   <si>
     <t>1. The complete functionality of the application should work correctly according to the selected 'US Dollar' currency</t>
   </si>
+  <si>
+    <t xml:space="preserve">Test Scenario </t>
+  </si>
+  <si>
+    <t>Pre-requisites</t>
+  </si>
+  <si>
+    <t>Expected Result (ER)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Test Scenarios</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5408,8 +5428,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5427,8 +5475,26 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -5488,143 +5554,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{FC2FF169-BE27-43D9-A78D-7C9064FCE38A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{C0A4837D-23A2-4E27-8649-035F5EC3DA2B}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5840,7 +5999,7 @@
   </sheetPr>
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6586,6 +6745,362 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J11" xr:uid="{00000000-0002-0000-0900-000000000000}">
+      <formula1>"PASS,FAIL,Blocked,Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7216,7 +7731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7520,7 +8035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7927,7 +8442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8347,7 +8862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8799,7 +9314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11453,6 +11968,704 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287FCAC-8616-4880-A2F1-865FC187E331}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="48" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="48" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="48" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="13" style="48" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="48" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="55"/>
+    </row>
+    <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>426</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>439</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>444</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="55"/>
+    </row>
+    <row r="12" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>449</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="55"/>
+    </row>
+    <row r="13" spans="1:11" ht="171" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>453</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="55"/>
+    </row>
+    <row r="14" spans="1:11" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>458</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="55"/>
+    </row>
+    <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="55"/>
+    </row>
+    <row r="16" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>467</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="55"/>
+    </row>
+    <row r="17" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>470</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>471</v>
+      </c>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="55"/>
+    </row>
+    <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="55"/>
+    </row>
+    <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="55"/>
+    </row>
+    <row r="20" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="55"/>
+    </row>
+    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="55"/>
+    </row>
+    <row r="22" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>491</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="55"/>
+    </row>
+    <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="55"/>
+    </row>
+    <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
+        <v>495</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:J24">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J24" xr:uid="{C28EF2E2-C9B9-40A0-A96C-FA09FDB060F1}">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2:B2" location="'Test Scenarios'!A10" display="&lt;&lt; Test Scenarios" xr:uid="{B24A2174-B6CB-4B33-B681-C4DAC5FB0B46}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12176,7 +13389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13245,7 +14458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13555,360 +14768,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="49.42578125" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-    </row>
-    <row r="2" spans="1:15" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>774</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>777</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>778</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>780</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>781</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>783</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>785</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>787</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>788</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:15" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>790</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>792</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>794</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>795</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>796</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>800</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>804</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>806</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>807</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>808</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>809</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J11" xr:uid="{00000000-0002-0000-0900-000000000000}">
-      <formula1>"PASS,FAIL,Blocked,Not Tested"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/05-Test cases (Open Cart ).xlsx
+++ b/05-Test cases (Open Cart ).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Classic Computer\Desktop\report\OpenCart-Manual_Testing project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE1EB2E-96E3-4232-AA0B-766CCC06A004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CD12C8-88A5-4814-A3FA-09C73876A1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
@@ -18,17 +18,16 @@
     <sheet name="Logout" sheetId="4" r:id="rId3"/>
     <sheet name="Forgot Password" sheetId="5" r:id="rId4"/>
     <sheet name="Search" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="Search (2)" sheetId="17" r:id="rId6"/>
-    <sheet name="Product Compare" sheetId="7" r:id="rId7"/>
-    <sheet name="Product Display" sheetId="8" r:id="rId8"/>
-    <sheet name="Add to cart" sheetId="9" r:id="rId9"/>
-    <sheet name="Home Page" sheetId="10" r:id="rId10"/>
-    <sheet name="Checkout" sheetId="11" r:id="rId11"/>
-    <sheet name="My Account" sheetId="12" r:id="rId12"/>
-    <sheet name="Change Password" sheetId="13" r:id="rId13"/>
-    <sheet name="Newsletter" sheetId="14" r:id="rId14"/>
-    <sheet name="Contact Us" sheetId="15" r:id="rId15"/>
-    <sheet name="Currencies" sheetId="16" r:id="rId16"/>
+    <sheet name="Product Compare" sheetId="7" r:id="rId6"/>
+    <sheet name="Product Display" sheetId="8" r:id="rId7"/>
+    <sheet name="Add to cart" sheetId="9" r:id="rId8"/>
+    <sheet name="Home Page" sheetId="10" r:id="rId9"/>
+    <sheet name="Checkout" sheetId="11" r:id="rId10"/>
+    <sheet name="My Account" sheetId="12" r:id="rId11"/>
+    <sheet name="Change Password" sheetId="13" r:id="rId12"/>
+    <sheet name="Newsletter" sheetId="14" r:id="rId13"/>
+    <sheet name="Contact Us" sheetId="15" r:id="rId14"/>
+    <sheet name="Currencies" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1096">
   <si>
     <t>Priority</t>
   </si>
@@ -5357,24 +5356,12 @@
   <si>
     <t>1. The complete functionality of the application should work correctly according to the selected 'US Dollar' currency</t>
   </si>
-  <si>
-    <t xml:space="preserve">Test Scenario </t>
-  </si>
-  <si>
-    <t>Pre-requisites</t>
-  </si>
-  <si>
-    <t>Expected Result (ER)</t>
-  </si>
-  <si>
-    <t>&lt;&lt; Test Scenarios</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5429,13 +5416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -5443,21 +5423,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5475,26 +5442,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -5554,52 +5503,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5725,65 +5636,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{FC2FF169-BE27-43D9-A78D-7C9064FCE38A}"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{FC2FF169-BE27-43D9-A78D-7C9064FCE38A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{C0A4837D-23A2-4E27-8649-035F5EC3DA2B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C0A4837D-23A2-4E27-8649-035F5EC3DA2B}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5999,7 +5859,7 @@
   </sheetPr>
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6745,362 +6605,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="49.42578125" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-    </row>
-    <row r="2" spans="1:15" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>774</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>777</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>778</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>780</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>781</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>783</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>785</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>787</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>788</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:15" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>790</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>792</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>794</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>795</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>796</v>
-      </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>800</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>804</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>806</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>807</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>808</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>809</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J11" xr:uid="{00000000-0002-0000-0900-000000000000}">
-      <formula1>"PASS,FAIL,Blocked,Not Tested"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7731,7 +7235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8035,7 +7539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8442,7 +7946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8862,7 +8366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9314,14 +8818,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -11968,704 +11472,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287FCAC-8616-4880-A2F1-865FC187E331}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="56.28515625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="48" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="48" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="13" style="48" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="48" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="48"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
-        <v>406</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>414</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>416</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>417</v>
-      </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
-        <v>418</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="55"/>
-    </row>
-    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>423</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
-        <v>425</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>426</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>427</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>428</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>432</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-    </row>
-    <row r="9" spans="1:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>433</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>434</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>435</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-    </row>
-    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>438</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>440</v>
-      </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="55"/>
-    </row>
-    <row r="11" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>443</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>444</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>445</v>
-      </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="55"/>
-    </row>
-    <row r="12" spans="1:11" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>446</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>447</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>448</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>449</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="55"/>
-    </row>
-    <row r="13" spans="1:11" ht="171" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>452</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>453</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>454</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="55"/>
-    </row>
-    <row r="14" spans="1:11" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>456</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>457</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>458</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>459</v>
-      </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="55"/>
-    </row>
-    <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>460</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-    </row>
-    <row r="16" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
-        <v>464</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>465</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>428</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>467</v>
-      </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="55"/>
-    </row>
-    <row r="17" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
-        <v>468</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>469</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>470</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>428</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>471</v>
-      </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="55"/>
-    </row>
-    <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>472</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>473</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>475</v>
-      </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="55"/>
-    </row>
-    <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>477</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>478</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>479</v>
-      </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="55"/>
-    </row>
-    <row r="20" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
-        <v>480</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>481</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>482</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>483</v>
-      </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="55"/>
-    </row>
-    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>484</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>485</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>486</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>487</v>
-      </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="55"/>
-    </row>
-    <row r="22" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
-        <v>488</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>489</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>491</v>
-      </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="55"/>
-    </row>
-    <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
-        <v>492</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="55"/>
-    </row>
-    <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
-        <v>495</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="55"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
-      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
-      <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J24" xr:uid="{C28EF2E2-C9B9-40A0-A96C-FA09FDB060F1}">
-      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2:B2" location="'Test Scenarios'!A10" display="&lt;&lt; Test Scenarios" xr:uid="{B24A2174-B6CB-4B33-B681-C4DAC5FB0B46}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13389,7 +12195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14458,7 +13264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14768,4 +13574,360 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>789</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J11" xr:uid="{00000000-0002-0000-0900-000000000000}">
+      <formula1>"PASS,FAIL,Blocked,Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>